--- a/Excel/2022/第二期/2022-第8周.xlsx
+++ b/Excel/2022/第二期/2022-第8周.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16842" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16847" uniqueCount="461">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1884,6 +1884,26 @@
     <t>不暂停</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>下班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 从座位上起来：周一到周五 晚上 准时下班 6点-7点必须走 。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2周 六 周 天加班 【电脑必须在公司】周五和周六 2天一定把电脑放公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺 ：这就是目标，任何情况都不能改变，自己不能妥协放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺 ：你自己要去执行。最后自己说难不执行 结果肯定不行。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2784,9 +2804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2808,11 +2825,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2820,14 +2858,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2865,30 +2909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2919,28 +2939,28 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3234,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY49"/>
+  <dimension ref="A1:WRY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -67880,9 +67900,30 @@
       <c r="A48" s="98"/>
       <c r="B48" s="77"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="98"/>
       <c r="B49" s="77"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>458</v>
+      </c>
+      <c r="C53" t="s">
+        <v>459</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -67974,13 +68015,13 @@
       </c>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="144"/>
       <c r="B3" s="144"/>
       <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="D3" s="147"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -68005,16 +68046,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="144"/>
       <c r="D6" s="144"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="145"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="144"/>
       <c r="D7" s="144"/>
     </row>
@@ -68031,18 +68072,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -68076,44 +68117,44 @@
       <c r="A13" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="145"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="144"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="144"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="144"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="148"/>
       <c r="B17" s="148"/>
-      <c r="C17" s="150"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="148"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="148"/>
       <c r="B18" s="148"/>
-      <c r="C18" s="150"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="148"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -68144,10 +68185,10 @@
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="144"/>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="145" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="144" t="s">
@@ -68156,8 +68197,8 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="144"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="144"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -68230,6 +68271,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68242,22 +68299,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68532,13 +68573,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="112" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68549,36 +68590,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68586,15 +68627,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68608,7 +68649,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68620,7 +68661,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -68628,78 +68669,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="114" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="123" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="124"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="124"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="116"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="117"/>
+      <c r="D18" s="125"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68716,42 +68757,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="132" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="116" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -68759,10 +68800,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -68806,6 +68847,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -68817,20 +68872,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68858,13 +68899,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="112" t="s">
         <v>3</v>
       </c>
     </row>
@@ -68872,36 +68913,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -68909,15 +68950,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -68931,7 +68972,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -68943,7 +68984,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -68951,23 +68992,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="114" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -68976,57 +69017,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="123" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="124"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="124"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="116"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="117"/>
+      <c r="D18" s="125"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -69043,60 +69084,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="132" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110" t="s">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="116" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -69113,6 +69145,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69276,7 +69317,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -69288,7 +69329,7 @@
       <c r="D2" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="101" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69299,13 +69340,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="101"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69314,7 +69355,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="103" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="99" t="s">
@@ -69337,13 +69378,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69373,13 +69414,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69411,13 +69452,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69449,33 +69490,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -69491,6 +69524,14 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69743,13 +69784,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="112" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -69760,36 +69801,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -69797,15 +69838,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -69819,7 +69860,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -69831,7 +69872,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -69839,83 +69880,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="114" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="121" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="122"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -69932,30 +69973,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="132" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70006,20 +70047,6 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -70028,6 +70055,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2022/第二期/2022-第8周.xlsx
+++ b/Excel/2022/第二期/2022-第8周.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16847" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16854" uniqueCount="467">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1904,6 +1904,30 @@
     <t>✔  预先承诺 ：你自己要去执行。最后自己说难不执行 结果肯定不行。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>午睡三部曲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：午睡30分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步：去午睡区，需要120秒时间。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步：离开座位，走动需要1卡路里的力气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔预先承诺：自己不去睡，天都帮助不了你，在多任务和事情都是接口 因为不敢活动一下 完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔预先承诺：走动需要力气 完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2579,7 +2603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2795,6 +2819,9 @@
     <xf numFmtId="0" fontId="27" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2802,6 +2829,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2825,32 +2855,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2858,20 +2867,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2909,6 +2912,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2939,28 +2966,28 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3254,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY53"/>
+  <dimension ref="A1:WRY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51396,7 +51423,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
+      <c r="A2" s="98"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -67441,7 +67468,7 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="71" t="s">
         <v>412</v>
       </c>
@@ -67474,7 +67501,7 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="41" t="s">
         <v>414</v>
       </c>
@@ -67507,7 +67534,7 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="36" t="s">
         <v>417</v>
       </c>
@@ -67540,7 +67567,7 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="89" t="s">
         <v>415</v>
       </c>
@@ -67569,7 +67596,7 @@
       </c>
     </row>
     <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
@@ -67577,7 +67604,7 @@
       </c>
     </row>
     <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="36" t="s">
         <v>431</v>
       </c>
@@ -67586,7 +67613,7 @@
       </c>
     </row>
     <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="36" t="s">
         <v>432</v>
       </c>
@@ -67595,7 +67622,7 @@
       </c>
     </row>
     <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="36" t="s">
         <v>424</v>
       </c>
@@ -67604,33 +67631,33 @@
       </c>
     </row>
     <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="36" t="s">
         <v>428</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="91" t="s">
         <v>420</v>
       </c>
@@ -67639,19 +67666,19 @@
       </c>
     </row>
     <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="36" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="36" t="s">
         <v>427</v>
       </c>
@@ -67660,7 +67687,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="83" t="s">
         <v>442</v>
       </c>
@@ -67669,7 +67696,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="87" t="s">
         <v>438</v>
       </c>
@@ -67678,7 +67705,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="91" t="s">
         <v>439</v>
       </c>
@@ -67687,7 +67714,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="91" t="s">
         <v>440</v>
       </c>
@@ -67696,7 +67723,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="91" t="s">
         <v>441</v>
       </c>
@@ -67737,7 +67764,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="99" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -67748,7 +67775,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="98"/>
+      <c r="A29" s="99"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -67757,7 +67784,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="98"/>
+      <c r="A30" s="99"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
@@ -67766,7 +67793,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="98"/>
+      <c r="A31" s="99"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
@@ -67775,7 +67802,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="98"/>
+      <c r="A32" s="99"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
@@ -67784,7 +67811,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="98"/>
+      <c r="A33" s="99"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -67793,7 +67820,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="98"/>
+      <c r="A34" s="99"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
@@ -67801,127 +67828,157 @@
         <v>409</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="97"/>
+      <c r="B35" s="91" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" t="s">
+        <v>465</v>
+      </c>
+    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="98" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>378</v>
+      <c r="B37" t="s">
+        <v>463</v>
+      </c>
+      <c r="C37" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="75" t="s">
+      <c r="B38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="99"/>
+      <c r="B40" s="75" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="C39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="C40" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="77" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="98"/>
-      <c r="B42" s="78" t="s">
-        <v>389</v>
+      <c r="A42" s="99"/>
+      <c r="B42" s="77" t="s">
+        <v>443</v>
       </c>
       <c r="C42" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="98"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="77" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C43" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="98"/>
-      <c r="B44" s="79" t="s">
-        <v>394</v>
+      <c r="A44" s="99"/>
+      <c r="B44" s="78" t="s">
+        <v>389</v>
       </c>
       <c r="C44" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="98"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C45" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="98"/>
-      <c r="B46" s="77" t="s">
-        <v>392</v>
+      <c r="A46" s="99"/>
+      <c r="B46" s="79" t="s">
+        <v>394</v>
       </c>
       <c r="C46" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98"/>
+    <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="99"/>
       <c r="B47" s="77" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C47" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="98"/>
-      <c r="B48" s="77"/>
+    <row r="48" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="99"/>
+      <c r="B48" s="77" t="s">
+        <v>392</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="98"/>
-      <c r="B49" s="77"/>
+    <row r="49" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="99"/>
+      <c r="B49" s="77" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="99"/>
+      <c r="B50" s="77"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="91" t="s">
+      <c r="A51" s="99"/>
+      <c r="B51" s="77"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="91" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="54" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>457</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="55" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>458</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -67930,12 +67987,12 @@
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A39:A51"/>
     <mergeCell ref="A7:A18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1"/>
+    <hyperlink ref="B39" r:id="rId1"/>
     <hyperlink ref="B19" r:id="rId2" location="%E6%8C%91%E6%88%9803%E6%9C%9F%E6%9C%9B%E7%BB%93%E6%9E%9C22%E7%82%B9%E8%AF%A5%E7%9D%A1%E8%A7%89%E6%97%B6%E5%80%99%E5%8E%BB%E7%9D%A1%E8%A7%89" display="晚上睡前："/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68010,18 +68067,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="147"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="147"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -68046,18 +68103,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="152"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -68072,18 +68129,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="148" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="150"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -68114,48 +68171,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="149" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="148"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="144"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="145"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="144"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="145"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="148"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="148"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="149"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="148"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="148"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="149"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -68184,22 +68241,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="145" t="s">
+      <c r="A21" s="145"/>
+      <c r="B21" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="145" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="144"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="145"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -68271,22 +68328,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68299,6 +68340,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68573,13 +68630,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="132" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68590,36 +68647,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="133"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="134" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68628,14 +68685,14 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="113" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68649,7 +68706,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="120"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68669,78 +68726,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="113" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="116" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="124"/>
+      <c r="D13" s="117"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="120"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="117"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="120"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="124"/>
+      <c r="D15" s="117"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="120"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="117"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="120"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="124"/>
+      <c r="D17" s="117"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="125"/>
+      <c r="D18" s="118"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68757,42 +68814,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="125" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="127"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="111" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -68801,9 +68858,9 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -68847,20 +68904,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -68872,6 +68915,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68899,13 +68956,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="132" t="s">
         <v>3</v>
       </c>
     </row>
@@ -68913,36 +68970,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="133"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="134" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="135"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -68951,14 +69008,14 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="113" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -68972,7 +69029,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="120"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -68992,23 +69049,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="113" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -69017,57 +69074,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="116" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="124"/>
+      <c r="D13" s="117"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="120"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="117"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="120"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="124"/>
+      <c r="D15" s="117"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="120"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="117"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="120"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="124"/>
+      <c r="D17" s="117"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="125"/>
+      <c r="D18" s="118"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -69084,51 +69141,60 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="125" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="127"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="111" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -69145,15 +69211,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69317,19 +69374,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="103" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69340,13 +69397,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69355,19 +69412,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="100" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="100" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -69378,13 +69435,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69393,17 +69450,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="100" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -69414,13 +69471,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69429,19 +69486,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="100" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="100" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -69452,13 +69509,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69467,48 +69524,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="100" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -69524,14 +69589,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69784,13 +69841,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="132" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -69801,36 +69858,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="133"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="134" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -69839,14 +69896,14 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="113" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -69860,7 +69917,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="120"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -69880,83 +69937,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="113" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="109" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="110"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="120"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="122"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="110"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="120"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="122"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="110"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="120"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="122"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="110"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="120"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="110"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="110"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -69973,30 +70030,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="125" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="127"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70047,6 +70104,20 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -70055,20 +70126,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70434,13 +70491,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -70448,11 +70505,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -70490,12 +70547,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="140" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -70688,19 +70745,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="136"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -71085,7 +71142,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -71096,19 +71153,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="143"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="143"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="144" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -71119,14 +71176,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="143"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="144" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -71137,14 +71194,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="143"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="144" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -71155,7 +71212,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="143"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>

--- a/Excel/2022/第二期/2022-第8周.xlsx
+++ b/Excel/2022/第二期/2022-第8周.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16854" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16867" uniqueCount="479">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1885,26 +1885,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>下班</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 从座位上起来：周一到周五 晚上 准时下班 6点-7点必须走 。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2周 六 周 天加班 【电脑必须在公司】周五和周六 2天一定把电脑放公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  预先承诺 ：这就是目标，任何情况都不能改变，自己不能妥协放弃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  预先承诺 ：你自己要去执行。最后自己说难不执行 结果肯定不行。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>午睡三部曲</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1928,12 +1908,126 @@
     <t>✔预先承诺：走动需要力气 完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> ✔  预先承诺   shutdown  -r -t 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺 ：下班复盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最重要一点：周五 周六 周天笔记本电脑 放公司，你周六 周天上午运动，下午加班。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✔  预先承诺   你担心手机没电，充电器带回家结果 每天熬夜的导火索 三年如此。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺：回去在晚也执行，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾2：回家 手机放客厅，并且 不在看新闻 聊天。准备运动装备 15分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾1：离开地铁，第一时间时间关闭手机。5分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾3：无楼下跟着keep运动。15分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动3：进入地铁，你第一时间关闭手机  10分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班（为三小时计划做准备）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上午ob代码阅读 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要到下午4点 我就给手机充电。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">准备1： 【极度轻松】
+只要下班你检查三个物品：
+手机充电插头三个，手机充电线2个，充电宝1个 ,耳机一个
+放公司，不放公司不下班。
+准备2个地铁卡，零钱做应急
+1 因为打算面对坏结果
+你允许一月导致手机没电不上班。不是充电器带回家方便
+2 用运动汗水，学习汗水，睡眠汗水打开真实沟通之门。
+你选择吃饭时候失去手机带来快乐，痛苦的吃饭
+你选择运动时候失去手机正确指导，错误的运动
+你选择学习时候没有手机一切监督和支持和辅导，就是默默学习。
+3 创造代替消费
+晚上22 23 1点 2点熬夜4小时看疲累无法入睡，6点 7点 8点 9点 疲累无法起床。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备2：【轻松】
+1 因为我下定决心
+你选择吃饭时候失去手机带来快乐，痛苦的吃饭
+你选择运动时候失去手机正确指导，错误的运动
+你选择学习时候没有手机一切监督和支持和辅导，
+用真实运动数据，学习数据和睡眠打沟通社交之门
+你创造一个运动，睡眠 学习良好环境
+2
+记住你的目标 ，提醒自己预先作出的承诺，
+你下定决心远离综艺，动漫 电视剧，对喜欢去学习创造演讲打开社会沟通之这是重要 非平台
+下定决心努力工作解决难题。领导ceo ppt领航者，过亿点击量等xx指标。
+你不会阻挡别人拯救世界，影响世界。但是别人实现他们目标 你不吃饭不睡觉不沟通
+我意识到只要 在同一空间 环境 条件约束我们目的一样 
+微弱思考，微弱行动，卑微活 思考 吃饭 睡觉 活动 ，
+就是他们百万千万疑优化做斗争，就是百万千万一万理性做奋斗，就是社会一切变化做变革。
+完成你使命。
+有时候意识到这种想法和感觉并不受你控制 ，但你可以选择是否将这些想法付诸实践 。
+吃饭时候，走路时候，睡觉时候，学习时候
+忍受：只要不看一眼动漫，综艺 直播 新闻，就是失去天下消息，天下领导同时消息，失去一切
+你知道：只要看一眼动漫，综艺 直播 新闻
+腾讯视频，微信直播，微信平台 还有斗鱼游戏平台目的不是这样
+他们消费全部新闻，全部综艺，全部动漫。消息聊天，提供无线时间黑洞里面 融不清晰 
+牢牢抓住注意力，不吃饭，不睡觉不唏嘘，不高考 不工作，完全沉迷其中好充钱看广告。
+一切背后目的这样。隐藏背后目的披上正义的外衣
+他么消耗时间：做世界计算 12亿人 每天4小时时间。千牺牲万人生命代价
+。比一个疾病百万人死亡，一个战争百还还打。
+完成小小的转变。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">行动1：【困难】
+行动 从座位上起来，打卡 楼梯一下合成
+因为
+需要自己提醒你需要完成意识下班时间，
+公司部门同时，领导 hr 不提醒你
+然后写工作日报，话力气站起来，花力气打卡。
+自觉遵守背后道理。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最重要一点：周五 周六 周天笔记本电脑 放公司，你周六 周天上午运动，下午加班。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2154,6 +2248,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2603,7 +2706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2822,6 +2925,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="23" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2829,9 +2934,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2855,11 +2957,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2867,14 +2990,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2912,30 +3041,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2966,32 +3071,35 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="23" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3281,10 +3389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY55"/>
+  <dimension ref="A1:WRY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51423,7 +51531,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
+      <c r="A2" s="100"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -67468,7 +67576,7 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="71" t="s">
         <v>412</v>
       </c>
@@ -67501,7 +67609,7 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="41" t="s">
         <v>414</v>
       </c>
@@ -67534,7 +67642,7 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="36" t="s">
         <v>417</v>
       </c>
@@ -67567,7 +67675,7 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="89" t="s">
         <v>415</v>
       </c>
@@ -67596,7 +67704,7 @@
       </c>
     </row>
     <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="101" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
@@ -67604,7 +67712,7 @@
       </c>
     </row>
     <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="36" t="s">
         <v>431</v>
       </c>
@@ -67613,7 +67721,7 @@
       </c>
     </row>
     <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="36" t="s">
         <v>432</v>
       </c>
@@ -67622,7 +67730,7 @@
       </c>
     </row>
     <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="36" t="s">
         <v>424</v>
       </c>
@@ -67631,33 +67739,33 @@
       </c>
     </row>
     <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="36" t="s">
         <v>428</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="91" t="s">
         <v>420</v>
       </c>
@@ -67666,19 +67774,19 @@
       </c>
     </row>
     <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="36" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="36" t="s">
         <v>427</v>
       </c>
@@ -67687,7 +67795,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="83" t="s">
         <v>442</v>
       </c>
@@ -67696,7 +67804,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="87" t="s">
         <v>438</v>
       </c>
@@ -67705,7 +67813,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="91" t="s">
         <v>439</v>
       </c>
@@ -67714,7 +67822,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="91" t="s">
         <v>440</v>
       </c>
@@ -67723,7 +67831,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="91" t="s">
         <v>441</v>
       </c>
@@ -67764,7 +67872,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="101" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -67775,7 +67883,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
+      <c r="A29" s="101"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -67784,7 +67892,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
+      <c r="A30" s="101"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
@@ -67793,7 +67901,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
+      <c r="A31" s="101"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
@@ -67802,7 +67910,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
+      <c r="A32" s="101"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
@@ -67811,7 +67919,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
+      <c r="A33" s="101"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -67820,7 +67928,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
+      <c r="A34" s="101"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
@@ -67831,35 +67939,35 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="97"/>
       <c r="B35" s="91" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C36" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="101" t="s">
         <v>377</v>
       </c>
       <c r="B39" s="81" t="s">
@@ -67867,13 +67975,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="75" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="77" t="s">
         <v>388</v>
       </c>
@@ -67882,7 +67990,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="77" t="s">
         <v>443</v>
       </c>
@@ -67891,7 +67999,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="77" t="s">
         <v>393</v>
       </c>
@@ -67900,7 +68008,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="78" t="s">
         <v>389</v>
       </c>
@@ -67909,7 +68017,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="77" t="s">
         <v>390</v>
       </c>
@@ -67918,7 +68026,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="79" t="s">
         <v>394</v>
       </c>
@@ -67927,7 +68035,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="99"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="77" t="s">
         <v>391</v>
       </c>
@@ -67936,7 +68044,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="77" t="s">
         <v>392</v>
       </c>
@@ -67945,7 +68053,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="99"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="77" t="s">
         <v>398</v>
       </c>
@@ -67954,32 +68062,87 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="99"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="77" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="99"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="77"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="91" t="s">
-        <v>456</v>
+      <c r="B53" s="99" t="s">
+        <v>472</v>
+      </c>
+      <c r="C53" t="s">
+        <v>465</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>457</v>
-      </c>
-      <c r="C54" t="s">
-        <v>460</v>
-      </c>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="99"/>
     </row>
-    <row r="55" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>458</v>
-      </c>
-      <c r="C55" t="s">
-        <v>459</v>
+    <row r="55" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+      <c r="B55" s="157" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="157" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="157" t="s">
+        <v>477</v>
+      </c>
+      <c r="C57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="98" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="98"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="C61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="98" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="98" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -68067,18 +68230,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="150"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -68103,18 +68266,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="147"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -68129,18 +68292,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="153" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="148"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -68171,48 +68334,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="151" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="145"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="147"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="145"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="145"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="147"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="149"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="149"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="151"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="149"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="149"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -68241,22 +68404,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="145"/>
-      <c r="B21" s="152" t="s">
+      <c r="A21" s="147"/>
+      <c r="B21" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="147" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="145"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="145"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="147"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -68328,6 +68491,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68340,22 +68519,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68630,13 +68793,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="115" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68647,36 +68810,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="121" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="135"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="122"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68684,15 +68847,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="117" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68706,7 +68869,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68718,7 +68881,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -68726,78 +68889,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="117" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="126" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="117"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="117"/>
+      <c r="D14" s="127"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="117"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="117"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="118"/>
+      <c r="D18" s="128"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68814,42 +68977,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="135" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="120"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="119" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -68857,10 +69020,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -68904,6 +69067,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -68915,20 +69092,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68956,13 +69119,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="115" t="s">
         <v>3</v>
       </c>
     </row>
@@ -68970,36 +69133,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="121" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="135"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="122"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -69007,15 +69170,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="117" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -69029,7 +69192,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -69041,7 +69204,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -69049,23 +69212,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="117" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -69074,57 +69237,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="126" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="117"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="117"/>
+      <c r="D14" s="127"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="117"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="117"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="118"/>
+      <c r="D18" s="128"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -69141,60 +69304,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="135" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="120"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111" t="s">
+      <c r="B23" s="119"/>
+      <c r="C23" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="119" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -69211,6 +69365,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69220,10 +69383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69326,6 +69489,14 @@
       <c r="AB2" s="95"/>
       <c r="AC2" s="95"/>
       <c r="AD2" s="95"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D3" s="33">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="G3" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -69374,19 +69545,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="104" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69397,13 +69568,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69412,19 +69583,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -69435,13 +69606,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69450,17 +69621,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="102" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -69471,13 +69642,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69486,19 +69657,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="102" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -69509,13 +69680,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69524,56 +69695,48 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="102" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -69589,6 +69752,14 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69841,13 +70012,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="115" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -69858,36 +70029,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="121" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="135"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="122"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="119" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -69895,15 +70066,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="117" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -69917,7 +70088,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -69929,7 +70100,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -69937,83 +70108,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="117" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="124" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="110"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="125"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="110"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="125"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="110"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="125"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="110"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="110"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="125"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="110"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="125"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -70030,30 +70201,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="135" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="120"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70104,20 +70275,6 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -70126,6 +70283,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70491,13 +70662,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="140" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -70505,11 +70676,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -70547,12 +70718,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="142" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -70745,19 +70916,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -71142,7 +71313,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="145" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -71153,19 +71324,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="146" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -71176,14 +71347,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="146" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -71194,14 +71365,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="146" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -71212,7 +71383,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>

--- a/Excel/2022/第二期/2022-第8周.xlsx
+++ b/Excel/2022/第二期/2022-第8周.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16867" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16868" uniqueCount="480">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1933,18 +1933,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>结尾2：回家 手机放客厅，并且 不在看新闻 聊天。准备运动装备 15分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾1：离开地铁，第一时间时间关闭手机。5分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾3：无楼下跟着keep运动。15分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>行动3：进入地铁，你第一时间关闭手机  10分钟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2020,6 +2008,33 @@
   </si>
   <si>
     <t>最重要一点：周五 周六 周天笔记本电脑 放公司，你周六 周天上午运动，下午加班。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大boos
+上一秒说了，下一秒就要去挑战
+地铁，
+客厅 
+运动长，
+学习区，
+卧室就是马上行动，
+这就战场，需要你马上行动，全力，100要在实现！
+代嫉妒别惹人每天百万，千万，亿万强大很学学10年 20年，别人开始工作，学校，沟通大门关闭，只是要求在别人设置根本不会，不懂懒惰！依靠他们！活着，一个呼吸恢复一对，这是战场，你去马上战斗！不然后悔等别人千万说做东西安排结果一样！nothing
+代替力后悔如你10年20年每天如此根本无法解决，抱怨消极，充好消息思想，浑浑噩噩活着！你至少需要准备，！准备万年咋样，这同意战场，不看看弱者的抱怨！
+看不懂，发现不了！
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss1：离开地铁，第一时间时间关闭手机。5分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss2：回家 手机放客厅，并且 不在看新闻 聊天。准备运动装备 15分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss3：无楼下跟着keep运动。15分钟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2927,6 +2942,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="23" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="23" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2934,6 +2952,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2957,32 +2978,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2990,20 +2990,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3041,6 +3035,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3071,35 +3089,32 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="23" xfId="8" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3389,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY65"/>
+  <dimension ref="A1:WRY66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51531,7 +51546,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
+      <c r="A2" s="101"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -67576,7 +67591,7 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="71" t="s">
         <v>412</v>
       </c>
@@ -67609,7 +67624,7 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="41" t="s">
         <v>414</v>
       </c>
@@ -67642,7 +67657,7 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="36" t="s">
         <v>417</v>
       </c>
@@ -67675,7 +67690,7 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="89" t="s">
         <v>415</v>
       </c>
@@ -67704,7 +67719,7 @@
       </c>
     </row>
     <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
@@ -67712,7 +67727,7 @@
       </c>
     </row>
     <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="36" t="s">
         <v>431</v>
       </c>
@@ -67721,7 +67736,7 @@
       </c>
     </row>
     <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="36" t="s">
         <v>432</v>
       </c>
@@ -67730,7 +67745,7 @@
       </c>
     </row>
     <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="36" t="s">
         <v>424</v>
       </c>
@@ -67739,33 +67754,33 @@
       </c>
     </row>
     <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="36" t="s">
         <v>428</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A14" s="101"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="91" t="s">
         <v>420</v>
       </c>
@@ -67774,19 +67789,19 @@
       </c>
     </row>
     <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="101"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="36" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="36" t="s">
         <v>427</v>
       </c>
@@ -67795,7 +67810,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="83" t="s">
         <v>442</v>
       </c>
@@ -67804,7 +67819,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="87" t="s">
         <v>438</v>
       </c>
@@ -67813,7 +67828,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="91" t="s">
         <v>439</v>
       </c>
@@ -67822,7 +67837,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="91" t="s">
         <v>440</v>
       </c>
@@ -67831,7 +67846,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="101"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="91" t="s">
         <v>441</v>
       </c>
@@ -67872,7 +67887,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -67883,7 +67898,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="101"/>
+      <c r="A29" s="102"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -67892,7 +67907,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="101"/>
+      <c r="A30" s="102"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
@@ -67901,7 +67916,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="101"/>
+      <c r="A31" s="102"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
@@ -67910,7 +67925,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="101"/>
+      <c r="A32" s="102"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
@@ -67919,7 +67934,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="101"/>
+      <c r="A33" s="102"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -67928,7 +67943,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="101"/>
+      <c r="A34" s="102"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
@@ -67967,7 +67982,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="102" t="s">
         <v>377</v>
       </c>
       <c r="B39" s="81" t="s">
@@ -67975,13 +67990,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="101"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="75" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="101"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="77" t="s">
         <v>388</v>
       </c>
@@ -67990,7 +68005,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="101"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="77" t="s">
         <v>443</v>
       </c>
@@ -67999,7 +68014,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="77" t="s">
         <v>393</v>
       </c>
@@ -68008,7 +68023,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="101"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="78" t="s">
         <v>389</v>
       </c>
@@ -68017,7 +68032,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="101"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="77" t="s">
         <v>390</v>
       </c>
@@ -68026,7 +68041,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="101"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="79" t="s">
         <v>394</v>
       </c>
@@ -68035,7 +68050,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="101"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="77" t="s">
         <v>391</v>
       </c>
@@ -68044,7 +68059,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="101"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="77" t="s">
         <v>392</v>
       </c>
@@ -68053,7 +68068,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="101"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="77" t="s">
         <v>398</v>
       </c>
@@ -68062,18 +68077,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="101"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="77" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="101"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="77"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="99" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C53" t="s">
         <v>465</v>
@@ -68083,66 +68098,71 @@
       <c r="B54" s="99"/>
     </row>
     <row r="55" spans="1:3" ht="228" x14ac:dyDescent="0.2">
-      <c r="B55" s="157" t="s">
-        <v>475</v>
+      <c r="B55" s="100" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="157" t="s">
-        <v>476</v>
+      <c r="B56" s="100" t="s">
+        <v>473</v>
       </c>
       <c r="C56" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="157" t="s">
-        <v>477</v>
+      <c r="B57" s="100" t="s">
+        <v>474</v>
       </c>
       <c r="C57" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="98" t="s">
-        <v>464</v>
-      </c>
-      <c r="C58" t="s">
-        <v>466</v>
+    <row r="58" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="100" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="98" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C59" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="98"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="C60" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="98" t="s">
-        <v>469</v>
-      </c>
-      <c r="C61" t="s">
-        <v>467</v>
-      </c>
+    <row r="61" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="98"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="98" t="s">
-        <v>468</v>
+        <v>477</v>
+      </c>
+      <c r="C62" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="98" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="98" t="s">
-        <v>478</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="98" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="98" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -68230,18 +68250,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="150"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="150"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -68266,18 +68286,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="155"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -68292,18 +68312,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="151" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="153"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -68334,48 +68354,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="152" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="151"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="147"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="148"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="147"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="147"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="148"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="151"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="151"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="152"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="151"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="152"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -68404,22 +68424,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148" t="s">
+      <c r="A21" s="148"/>
+      <c r="B21" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="148" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="147"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="147"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="148"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -68491,22 +68511,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68519,6 +68523,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68793,13 +68813,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="135" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68810,36 +68830,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="137" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="118"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="114" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68848,14 +68868,14 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68869,7 +68889,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="123"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68889,78 +68909,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="114"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="119" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="123"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="127"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="123"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="120"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="127"/>
+      <c r="D15" s="120"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="120"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="127"/>
+      <c r="D17" s="120"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="118"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="128"/>
+      <c r="D18" s="121"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68977,42 +68997,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="128" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="114" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -69021,9 +69041,9 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="118"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -69067,20 +69087,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -69092,6 +69098,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69119,13 +69139,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="135" t="s">
         <v>3</v>
       </c>
     </row>
@@ -69133,36 +69153,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="137" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="118"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="114" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -69171,14 +69191,14 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -69192,7 +69212,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="123"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -69212,23 +69232,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="114"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -69237,57 +69257,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="119" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="123"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="127"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="123"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="120"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="127"/>
+      <c r="D15" s="120"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="120"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="127"/>
+      <c r="D17" s="120"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="118"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="128"/>
+      <c r="D18" s="121"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -69304,51 +69324,60 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="128" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="114" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="118"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -69365,15 +69394,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69495,7 +69515,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -69545,19 +69565,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="106" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69568,13 +69588,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="103"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69583,19 +69603,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="103" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="103" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -69606,13 +69626,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69621,17 +69641,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="103" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -69642,13 +69662,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69657,19 +69677,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="103" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -69680,13 +69700,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69695,48 +69715,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="103" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -69752,14 +69780,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70012,13 +70032,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="135" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -70029,36 +70049,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="137" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="118"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="114" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="114" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -70067,14 +70087,14 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -70088,7 +70108,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="123"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -70108,83 +70128,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="114"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="112" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="123"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="125"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="123"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="125"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="125"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="125"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="125"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="118"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="125"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -70201,30 +70221,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="128" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70275,6 +70295,20 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -70283,20 +70317,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70662,13 +70682,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -70676,11 +70696,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -70718,12 +70738,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="143" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -70916,19 +70936,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="138"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -71313,7 +71333,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="146" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -71324,19 +71344,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="146"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="147" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -71347,14 +71367,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="146"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="147" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -71365,14 +71385,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="147" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -71383,7 +71403,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="146"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>

--- a/Excel/2022/第二期/2022-第8周.xlsx
+++ b/Excel/2022/第二期/2022-第8周.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16868" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16880" uniqueCount="493">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1628,10 +1628,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第三关 ：极度困难，关闭声音，沉迷 游戏结战略，综艺传递快乐 ，知识画面，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第四关：小boss 与周围人讨论，汇报工作</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1705,10 +1701,6 @@
   </si>
   <si>
     <t>✔ 预先承诺： 你不想看浏览器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">✖  预先承诺：登陆10.112.178.189 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1909,10 +1901,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ✔  预先承诺   shutdown  -r -t 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>✔  预先承诺 ：下班复盘</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1946,23 +1934,6 @@
   </si>
   <si>
     <t>只要到下午4点 我就给手机充电。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">准备1： 【极度轻松】
-只要下班你检查三个物品：
-手机充电插头三个，手机充电线2个，充电宝1个 ,耳机一个
-放公司，不放公司不下班。
-准备2个地铁卡，零钱做应急
-1 因为打算面对坏结果
-你允许一月导致手机没电不上班。不是充电器带回家方便
-2 用运动汗水，学习汗水，睡眠汗水打开真实沟通之门。
-你选择吃饭时候失去手机带来快乐，痛苦的吃饭
-你选择运动时候失去手机正确指导，错误的运动
-你选择学习时候没有手机一切监督和支持和辅导，就是默默学习。
-3 创造代替消费
-晚上22 23 1点 2点熬夜4小时看疲累无法入睡，6点 7点 8点 9点 疲累无法起床。
-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2037,11 +2008,112 @@
     <t>boss3：无楼下跟着keep运动。15分钟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>微信直播看新闻和看小说解锁，自己都不自己做了什么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺：ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大boos
+上一秒说了，下一秒就要去挑战
+地铁，
+客厅 
+运动长，
+学习区，
+卧室就是马上行动，
+这就战场，需要你马上行动，全力，100要在实现！
+代嫉妒别惹人每天百万，千万，亿万强大很学学10年 20年，别人开始工作，学校，沟通大门关闭，只是要求在别人设置根本不会，不懂懒惰！依靠他们！活着，一个呼吸恢复一对，这是战场，你去马上战斗！不然后悔等别人千万说做东西安排结果一样！nothing
+代替力后悔如你10年20年每天如此根本无法解决，抱怨消极，充好消息思想，浑浑噩噩活着！你至少需要准备，！准备万年咋样，这同意战场，不看看弱者的抱怨！
+看不懂，发现不了！
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计做到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   2022/3/7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你什么都舍去了，新闻点评，热点新闻点评。自己120分钟点评，代替看别人点评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你列出下班手机检查清单 6个（感觉不行，感觉记得一个，二个）
+1. 手机开启阅读模式
+2. 手机忘记WiFi网络
+3. 手机微信开启青少年
+4. 手机 8点 9点 22点 23点 0点 开启 不解锁
+5. 开启护眼宝
+6. 开启forest森林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果：ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果：ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">准备1： 【极度轻松】  准备2个地铁卡，零钱做应急
+只要下班你检查三个物品：
+手机充电插头三个，手机充电线2个，充电宝1个 ,耳机一个
+放公司，不放公司不下班。
+准备2个地铁卡，零钱做应急
+1 因为打算面对坏结果
+你允许一月导致手机没电不上班。不是充电器带回家方便
+2 用运动汗水，学习汗水，睡眠汗水打开真实沟通之门。
+你选择吃饭时候失去手机带来快乐，痛苦的吃饭
+你选择运动时候失去手机正确指导，错误的运动
+你选择学习时候没有手机一切监督和支持和辅导，就是默默学习。
+3 创造代替消费
+晚上22 23 1点 2点熬夜4小时看疲累无法入睡，6点 7点 8点 9点 疲累无法起床。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午ob代码阅读</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 预先承诺：ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关 ：专注15分钟。从根本上 最核心地方思考。只有15分钟。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看文档一个上午下午</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码根本没有看</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2721,7 +2793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2945,6 +3017,11 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="23" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2952,9 +3029,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2978,11 +3052,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2990,14 +3085,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3035,30 +3136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3089,28 +3166,28 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3404,15 +3481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY66"/>
+  <dimension ref="A1:WRY70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.875" customWidth="1"/>
+    <col min="2" max="2" width="93.75" customWidth="1"/>
     <col min="3" max="3" width="78.25" customWidth="1"/>
     <col min="4" max="4" width="65.5" customWidth="1"/>
     <col min="5" max="5" width="55.375" customWidth="1"/>
@@ -51546,7 +51623,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -67591,12 +67668,12 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>353</v>
@@ -67624,12 +67701,12 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="41" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>356</v>
@@ -67657,12 +67734,12 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>354</v>
@@ -67690,12 +67767,12 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="89" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>244</v>
@@ -67719,160 +67796,160 @@
       </c>
     </row>
     <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="91" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C19" s="73" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="87" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="91" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="91" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="102"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
       <c r="B24" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" t="s">
         <v>401</v>
-      </c>
-      <c r="C24" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="85"/>
       <c r="B25" s="91" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="84"/>
       <c r="B26" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>384</v>
@@ -67880,109 +67957,109 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="105" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="102"/>
+      <c r="A29" s="105"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="102"/>
+      <c r="A30" s="105"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
       <c r="C30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
+      <c r="A31" s="105"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="102"/>
+      <c r="A32" s="105"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="102"/>
+      <c r="A33" s="105"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="102"/>
+      <c r="A34" s="105"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="97"/>
       <c r="B35" s="91" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="105" t="s">
         <v>377</v>
       </c>
       <c r="B39" s="81" t="s">
@@ -67990,179 +68067,193 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="102"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="77" t="s">
         <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="77" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="102"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="78" t="s">
         <v>389</v>
       </c>
       <c r="C44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="102"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="77" t="s">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="C45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="102"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="77" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="77"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="99" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="99"/>
     </row>
-    <row r="55" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="100" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="100" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="100" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="100" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="100" t="s">
-        <v>473</v>
-      </c>
-      <c r="C56" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="100" t="s">
-        <v>474</v>
-      </c>
-      <c r="C57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="100" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="98" t="s">
-        <v>464</v>
-      </c>
-      <c r="C59" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="98" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="98"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="C61" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="C62" t="s">
-        <v>467</v>
-      </c>
+    <row r="62" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="98"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="98" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:2" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="100" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="98" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="98" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -68250,18 +68341,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="154"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -68286,18 +68377,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="150"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -68312,18 +68403,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="157" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -68354,48 +68445,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="152"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="148"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="151"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="148"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="148"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="152"/>
+      <c r="A17" s="155"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="155"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="152"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="155"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -68424,22 +68515,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
-      <c r="B21" s="155" t="s">
+      <c r="A21" s="151"/>
+      <c r="B21" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="151" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="148"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="148"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="151"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -68511,6 +68602,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68523,22 +68630,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68813,13 +68904,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="119" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68830,36 +68921,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="136"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="138"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="126"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68867,15 +68958,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="121" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68889,7 +68980,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68901,7 +68992,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -68909,78 +69000,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="123"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="121" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="130" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="120"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="120"/>
+      <c r="D14" s="131"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="120"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="120"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="121"/>
+      <c r="D18" s="132"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68997,42 +69088,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="139" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="123" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -69040,10 +69131,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -69087,6 +69178,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -69098,20 +69203,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69139,13 +69230,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="119" t="s">
         <v>3</v>
       </c>
     </row>
@@ -69153,36 +69244,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="136"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="138"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="126"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -69190,15 +69281,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="121" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -69212,7 +69303,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -69224,7 +69315,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -69232,23 +69323,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="123"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="121" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -69257,57 +69348,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="130" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="120"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="120"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="120"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="120"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="121"/>
+      <c r="D18" s="132"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -69324,60 +69415,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="139" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114" t="s">
+      <c r="B23" s="123"/>
+      <c r="C23" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="123" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -69394,6 +69476,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69403,10 +69494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69423,25 +69514,25 @@
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="F1" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="G1" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="H1" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="I1" s="96" t="s">
         <v>452</v>
-      </c>
-      <c r="H1" s="96" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" s="96" t="s">
-        <v>454</v>
       </c>
       <c r="J1" s="94"/>
       <c r="K1" s="95"/>
@@ -69468,13 +69559,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D2" s="93">
         <v>0.58819444444444446</v>
@@ -69482,10 +69573,10 @@
       <c r="E2" s="94"/>
       <c r="F2" s="94"/>
       <c r="G2" s="94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H2" s="94" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I2" s="94"/>
       <c r="J2" s="95"/>
@@ -69515,7 +69606,32 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G3" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D4" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H4" t="s">
+        <v>490</v>
+      </c>
+      <c r="I4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D5" s="33">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="G5" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -69565,19 +69681,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="106" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="108" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69588,13 +69704,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="105"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69603,19 +69719,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="106" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="106" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -69626,13 +69742,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="105"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69641,17 +69757,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="106" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -69662,13 +69778,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69677,19 +69793,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="106" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="106" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -69700,13 +69816,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69715,56 +69831,48 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="106" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -69780,6 +69888,14 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69789,180 +69905,264 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A7" sqref="A7:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="101" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="101" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="103" customWidth="1"/>
+    <col min="6" max="6" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>362</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="101" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" t="s">
         <v>364</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="69">
         <v>44602</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33">
         <v>0.99513888888888891</v>
       </c>
-      <c r="C2" s="33">
+      <c r="E2" s="103">
         <v>0.4055555555555555</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="69">
         <v>44604</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="101">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
         <v>0.99513888888888891</v>
       </c>
-      <c r="C3" s="33">
+      <c r="E3" s="103">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="69">
         <v>44605</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="101">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
         <v>0.99305555555555547</v>
       </c>
-      <c r="C4" s="33">
+      <c r="E4" s="103">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="69">
         <v>44606</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="101">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
         <v>0.125</v>
       </c>
-      <c r="C5" s="33">
+      <c r="E5" s="103">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="69">
         <v>44607</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="C6" s="33">
+      <c r="E6" s="103">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D6" t="s">
-        <v>395</v>
+      <c r="F6" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <v>44608</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="101">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
         <v>0.10416666666666667</v>
       </c>
-      <c r="C7" s="33">
+      <c r="E7" s="103">
         <v>0.375</v>
       </c>
-      <c r="D7" t="s">
-        <v>396</v>
+      <c r="F7" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="69">
         <v>44609</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="101">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
         <v>0.99930555555555556</v>
       </c>
-      <c r="C8" s="33">
+      <c r="E8" s="103">
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="69">
         <v>44610</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="101">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="33">
+      <c r="E9" s="103">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D9" t="s">
-        <v>397</v>
+      <c r="F9" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="69">
         <v>44614</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="101">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C10" s="33">
+      <c r="E10" s="103">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="69">
         <v>44614</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="101">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
         <v>0.99305555555555547</v>
       </c>
-      <c r="C11" s="33">
+      <c r="E11" s="103">
         <v>0.34027777777777773</v>
       </c>
-      <c r="D11" t="s">
-        <v>429</v>
+      <c r="F11" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="69">
         <v>44615</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="101">
+        <v>0</v>
+      </c>
+      <c r="C12" s="101">
+        <v>94</v>
+      </c>
+      <c r="D12" s="33">
         <v>0.125</v>
       </c>
-      <c r="C12" s="33">
+      <c r="E12" s="103">
         <v>0.34027777777777773</v>
       </c>
-      <c r="D12" t="s">
-        <v>430</v>
+      <c r="F12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="101">
+        <v>0</v>
+      </c>
+      <c r="C14" s="101">
+        <v>95</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="E14" s="103">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
+        <v>44628</v>
+      </c>
+      <c r="B15" s="101">
+        <v>0</v>
+      </c>
+      <c r="C15" s="101">
+        <v>96</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="E15" s="103">
+        <v>0.875</v>
+      </c>
+      <c r="F15" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -69987,18 +70187,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" t="s">
         <v>405</v>
-      </c>
-      <c r="B1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>403</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -70032,13 +70232,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="119" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -70049,36 +70249,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="136"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="138"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="126"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="123" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -70086,15 +70286,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="121" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -70108,7 +70308,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -70120,7 +70320,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -70128,83 +70328,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="123"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="121" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="128" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="129"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="129"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="129"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="129"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="117"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="113"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="129"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="129"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -70221,30 +70421,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="139" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70295,20 +70495,6 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -70317,6 +70503,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70682,13 +70882,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="144" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -70696,11 +70896,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="142"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -70738,12 +70938,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="146" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -70936,19 +71136,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="139"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
+      <c r="A22" s="142"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="140"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -71333,7 +71533,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="149" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -71344,19 +71544,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="147"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="150" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -71367,14 +71567,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="147"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="150" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -71385,14 +71585,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="147"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="150" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -71403,7 +71603,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="147"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>

--- a/Excel/2022/第二期/2022-第8周.xlsx
+++ b/Excel/2022/第二期/2022-第8周.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16880" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16881" uniqueCount="494">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1933,10 +1933,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>只要到下午4点 我就给手机充电。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>准备2：【轻松】
 1 因为我下定决心
 你选择吃饭时候失去手机带来快乐，痛苦的吃饭
@@ -2104,6 +2100,14 @@
   </si>
   <si>
     <t>看视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要到下午4点 。就去楼下跳绳。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ✔ 预先承诺 ok</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3481,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY70"/>
+  <dimension ref="A1:WRY71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68078,7 +68082,7 @@
         <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -68087,7 +68091,7 @@
         <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -68111,7 +68115,7 @@
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="105"/>
       <c r="B45" s="77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C45" t="s">
         <v>407</v>
@@ -68153,107 +68157,114 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="105"/>
-      <c r="B50" s="77" t="s">
-        <v>468</v>
-      </c>
+      <c r="B50" s="77"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="105"/>
-      <c r="B51" s="77"/>
+      <c r="B51" s="77" t="s">
+        <v>492</v>
+      </c>
+      <c r="C51" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="C53" t="s">
-        <v>462</v>
-      </c>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="105"/>
+      <c r="B52" s="77"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="99"/>
+      <c r="B54" s="99" t="s">
+        <v>466</v>
+      </c>
+      <c r="C54" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="55" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="100" t="s">
-        <v>486</v>
-      </c>
-      <c r="C55" s="32" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="99"/>
+    </row>
+    <row r="56" spans="1:3" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="100" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="100" t="s">
+        <v>468</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="100" t="s">
+    <row r="58" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>485</v>
+      <c r="C59" t="s">
+        <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="100" t="s">
-        <v>470</v>
-      </c>
-      <c r="C58" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="100" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="98" t="s">
-        <v>461</v>
-      </c>
-      <c r="C60" t="s">
-        <v>463</v>
+    <row r="60" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="100" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="98" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C61" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="98"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="C62" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="63" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="98" t="s">
+    <row r="63" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="98"/>
+    </row>
+    <row r="64" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="C64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="C63" t="s">
-        <v>464</v>
-      </c>
     </row>
-    <row r="64" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="98" t="s">
+    <row r="66" spans="2:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="98" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="98" t="s">
-        <v>475</v>
+    <row r="68" spans="2:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="98" t="s">
+        <v>470</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="98" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="2:2" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="100" t="s">
-        <v>478</v>
+    <row r="70" spans="2:2" ht="93" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:2" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="100" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -68261,7 +68272,7 @@
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="A39:A52"/>
     <mergeCell ref="A7:A18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -69496,7 +69507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -69617,13 +69628,13 @@
         <v>0.63472222222222219</v>
       </c>
       <c r="G4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" t="s">
         <v>490</v>
-      </c>
-      <c r="I4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -69631,7 +69642,7 @@
         <v>0.65069444444444446</v>
       </c>
       <c r="G5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -69926,10 +69937,10 @@
         <v>362</v>
       </c>
       <c r="B1" s="101" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="101" t="s">
         <v>479</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>480</v>
       </c>
       <c r="D1" t="s">
         <v>364</v>
@@ -70127,7 +70138,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B14" s="101">
         <v>0</v>
@@ -70142,7 +70153,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -70162,7 +70173,7 @@
         <v>0.875</v>
       </c>
       <c r="F15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
